--- a/Data/links.xlsx
+++ b/Data/links.xlsx
@@ -526,7 +526,10 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test</t>
+          <t xml:space="preserve">   Join Zoom Meeting
+https://us05web.zoom.us/j/87261387913?pwd=TDRwUUpKWUpJS3QyUjBjV0t3OXdxdz09
+Meeting ID: 872 6138 7913
+Passcode: 3sbdhZ</t>
         </is>
       </c>
     </row>
@@ -610,7 +613,9 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">    https://us02web.zoom.us/j/2493443851?pwd=Tkk2ZVNDZm1uY0VVTGtoVlN1YnMwdz09
+Meeting ID: 249 344 3851
+Passcode: 4vAeeC</t>
         </is>
       </c>
     </row>
@@ -630,7 +635,9 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">    https://us02web.zoom.us/j/2493443851?pwd=Tkk2ZVNDZm1uY0VVTGtoVlN1YnMwdz09
+Meeting ID: 249 344 3851
+Passcode: 4vAeeC</t>
         </is>
       </c>
     </row>
@@ -726,7 +733,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">   https://us04web.zoom.us/j/77030885683?pwd=0vEcOx0wRrSnWCTwZlqJKiN8nYTdkt.1</t>
         </is>
       </c>
     </row>
@@ -766,7 +773,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">   https://meet.google.com/ges-afuy-oww</t>
         </is>
       </c>
     </row>

--- a/Data/links.xlsx
+++ b/Data/links.xlsx
@@ -486,7 +486,9 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">   https://us02web.zoom.us/j/88161244599?pwd=TSszSUFkN0FNNEljdGJDS0c2c0ZSUT09
+Идентификатор конференции: 881 6124 4599
+Код доступа: 332100</t>
         </is>
       </c>
     </row>
@@ -506,7 +508,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">   https://us02web.zoom.us/j/88161244599?pwd=TSszSUFkN0FNNEljdGJDS0c2c0ZSUT09</t>
         </is>
       </c>
     </row>
